--- a/target/classes/resources/qaTestData.xlsx
+++ b/target/classes/resources/qaTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
   <si>
     <t>emailid</t>
   </si>
@@ -97,9 +97,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -441,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922D2723-0B30-D145-B6F4-1DD97BE7664E}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -468,6 +469,7 @@
     <col min="26" max="26" bestFit="true" customWidth="true" width="6.015625" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="6.015625" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="6.015625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.015625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -537,6 +539,9 @@
       <c r="AB1" t="s" s="27">
         <v>7</v>
       </c>
+      <c r="AC1" t="s" s="28">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -596,6 +601,9 @@
       <c r="AB2" t="s">
         <v>8</v>
       </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -655,6 +663,9 @@
       <c r="AB3" t="s">
         <v>8</v>
       </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -714,6 +725,9 @@
       <c r="AB4" t="s">
         <v>8</v>
       </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -771,6 +785,9 @@
         <v>8</v>
       </c>
       <c r="AB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="s">
         <v>8</v>
       </c>
     </row>
